--- a/Xports/UD_French-FQB/VERB-no-indirect-obj.xlsx
+++ b/Xports/UD_French-FQB/VERB-no-indirect-obj.xlsx
@@ -36608,7 +36608,7 @@
         <v>4981</v>
       </c>
       <c r="O435">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:15">
